--- a/JSquestions.xlsx
+++ b/JSquestions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITIintake-43\AdvDB(SQL)\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITIintake-43\AdvDB(SQL)\project-\ITI-AdvDB-project-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7DFDEF-2B35-496D-9D13-761F64EFBC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F7201A-E748-43BE-BEBE-146548D81AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>questionID</t>
   </si>
@@ -144,13 +144,258 @@
   </si>
   <si>
     <t>What does … operator do in JS?</t>
+  </si>
+  <si>
+    <t>Which of the following scoping type does JavaScript use?</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3A3A3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF339933"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF009900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1,2,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF009900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF339933"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3A3A3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+var js=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6,7,8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>];</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+var </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result=quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.concat(js);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>document</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.writeln(result); </t>
+    </r>
+  </si>
+  <si>
+    <t>var scope = "js scope";
+function checkscope() 
+{
+    var scope = "javascript scope"; 
+    function f() 
+    { 
+         return scope; 
+    }
+    return f;
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>What will be the result or type of error if p is not defined in the following JavaScript code snippet?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3A3A3A"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+console.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3A3A3A"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(p)</t>
+    </r>
+  </si>
+  <si>
+    <t>Which of the following is not a framework?</t>
+  </si>
+  <si>
+    <t>function compare()
+{
+    int sanfoundry=1;
+    char javascript=1;
+    if(sanfoundry.tostring()===javascript)
+        return true;
+    else 
+        return false;
+}</t>
+  </si>
+  <si>
+    <t>Which of the following is not an error in JavaScript?</t>
+  </si>
+  <si>
+    <t>The ability to combine embedded JavaScript code and JavaScript source files in a single web page is advantageous if you have multiple web pages.</t>
+  </si>
+  <si>
+    <t>In an infinite loop, a loop statement never ends because its conditional expression is never truthy.</t>
+  </si>
+  <si>
+    <t>The statement document.write("This is a text string."); 
+prints "This is a text string".</t>
+  </si>
+  <si>
+    <t>A function must return a value.</t>
+  </si>
+  <si>
+    <t>The querySelector() method returns the first occurrence of an element matching a specified CSS selector.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +426,86 @@
       <color rgb="FF397300"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000066"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF339933"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF009900"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,6 +538,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,10 +957,250 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>12</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>14</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>15</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>16</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>18</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>19</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>20</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="C27:C35"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
